--- a/Seedling_Data/Seedling Disease Scores.xlsx
+++ b/Seedling_Data/Seedling Disease Scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivercollado/OneDrive/Work.Academic/Berkeley/Postbac/R Files/Seedling Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAFE0BC-5A6F-D343-B572-9C56485DDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B77A16-F40D-0C4F-86A7-11A4B2856731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{F63FFC98-06FB-8B4B-A729-9D1BC6E6062F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{F63FFC98-06FB-8B4B-A729-9D1BC6E6062F}"/>
   </bookViews>
   <sheets>
     <sheet name="one_raw_seedling_data" sheetId="1" r:id="rId1"/>
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C9BBD6-8C53-C842-B177-0DF1C6D7CD25}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -2587,7 +2587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593E4425-FD9C-8B4D-8E67-4D2051EE2C6D}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
@@ -4071,6 +4071,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4078,7 +4079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB7A5FB-86C3-D64C-BE6D-8A4BF031A938}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C35"/>
     </sheetView>
   </sheetViews>
@@ -5528,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D37E31-0018-9B44-9554-5DD9627EF248}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A12" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5566,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4">
         <v>1000000</v>
@@ -5589,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4">
         <v>40000</v>
@@ -5612,7 +5613,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -5635,7 +5636,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4">
         <v>30000000</v>
@@ -5658,7 +5659,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -5681,7 +5682,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -5704,7 +5705,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4">
         <v>2000000</v>
@@ -5727,7 +5728,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -5750,7 +5751,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -5773,7 +5774,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4">
         <v>600000</v>
@@ -5796,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4">
         <v>28000</v>
@@ -5819,7 +5820,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -5842,7 +5843,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -5865,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4">
         <v>700</v>
@@ -5888,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4">
         <v>50000</v>
@@ -5911,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4">
         <v>1200</v>
@@ -5934,7 +5935,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C18" s="4">
         <v>100</v>
@@ -5957,7 +5958,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C19" s="4">
         <v>10000</v>
@@ -5980,7 +5981,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -6003,7 +6004,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C21" s="4">
         <v>100000</v>
@@ -6026,7 +6027,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4">
         <v>40000</v>
@@ -6049,7 +6050,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -6072,7 +6073,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="1">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -6095,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4">
         <v>10000000</v>
@@ -6118,7 +6119,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4">
         <v>600</v>
@@ -6141,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4">
         <v>40000</v>
@@ -6164,7 +6165,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C28" s="4">
         <v>2000</v>
@@ -6187,7 +6188,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="1">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -6210,7 +6211,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="1">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -6233,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -6256,7 +6257,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4">
         <v>120000</v>
@@ -6279,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4">
         <v>1000000</v>
@@ -6302,7 +6303,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4">
         <v>30000</v>
@@ -6325,7 +6326,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -15043,8 +15044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE68ED-0B5F-8A4F-A3EE-05D0386F3D15}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17802,7 +17803,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I61"/>
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17848,8 +17849,8 @@
       <c r="B2" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
+      <c r="C2" s="6">
+        <v>110</v>
       </c>
       <c r="D2" s="7">
         <v>10000000</v>
@@ -17877,8 +17878,9 @@
       <c r="B3" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C3" s="7">
-        <v>2</v>
+      <c r="C3" s="6">
+        <f>C2+1</f>
+        <v>111</v>
       </c>
       <c r="D3" s="7">
         <v>10000</v>
@@ -17906,8 +17908,9 @@
       <c r="B4" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C4" s="7">
-        <v>3</v>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C61" si="0">C3+1</f>
+        <v>112</v>
       </c>
       <c r="D4" s="7">
         <v>160000</v>
@@ -17935,8 +17938,9 @@
       <c r="B5" s="7">
         <v>0.02</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -17964,8 +17968,9 @@
       <c r="B6" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C6" s="7">
-        <v>5</v>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>114</v>
       </c>
       <c r="D6" s="7">
         <v>20000</v>
@@ -17993,8 +17998,9 @@
       <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7">
-        <v>6</v>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>115</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -18022,8 +18028,9 @@
       <c r="B8" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C8" s="7">
-        <v>7</v>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>116</v>
       </c>
       <c r="D8" s="7">
         <v>2400</v>
@@ -18051,8 +18058,9 @@
       <c r="B9" s="7">
         <v>0.02</v>
       </c>
-      <c r="C9" s="7">
-        <v>8</v>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>117</v>
       </c>
       <c r="D9" s="7">
         <v>300000</v>
@@ -18080,8 +18088,9 @@
       <c r="B10" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C10" s="7">
-        <v>9</v>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>118</v>
       </c>
       <c r="D10" s="7">
         <v>400</v>
@@ -18109,8 +18118,9 @@
       <c r="B11" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C11" s="7">
-        <v>10</v>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
         <v>5000</v>
@@ -18138,8 +18148,9 @@
       <c r="B12" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C12" s="7">
-        <v>11</v>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="D12" s="7">
         <v>1000</v>
@@ -18167,8 +18178,9 @@
       <c r="B13" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C13" s="7">
-        <v>12</v>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
         <v>7000</v>
@@ -18196,8 +18208,9 @@
       <c r="B14" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C14" s="7">
-        <v>13</v>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
       <c r="D14" s="7">
         <v>2500000</v>
@@ -18225,8 +18238,9 @@
       <c r="B15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="7">
-        <v>14</v>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -18254,8 +18268,9 @@
       <c r="B16" s="7">
         <v>0.02</v>
       </c>
-      <c r="C16" s="7">
-        <v>15</v>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>124</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -18283,8 +18298,9 @@
       <c r="B17" s="7">
         <v>0.02</v>
       </c>
-      <c r="C17" s="7">
-        <v>16</v>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="D17" s="7">
         <v>14000000</v>
@@ -18312,8 +18328,9 @@
       <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="7">
-        <v>17</v>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>126</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -18341,8 +18358,9 @@
       <c r="B19" s="7">
         <v>0.02</v>
       </c>
-      <c r="C19" s="7">
-        <v>18</v>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>127</v>
       </c>
       <c r="D19" s="7">
         <v>1200</v>
@@ -18370,8 +18388,9 @@
       <c r="B20" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C20" s="7">
-        <v>19</v>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
         <v>200000</v>
@@ -18399,8 +18418,9 @@
       <c r="B21" s="7">
         <v>0.02</v>
       </c>
-      <c r="C21" s="7">
-        <v>20</v>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>129</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -18428,8 +18448,9 @@
       <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="7">
-        <v>21</v>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -18457,8 +18478,9 @@
       <c r="B23" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C23" s="7">
-        <v>22</v>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>131</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
@@ -18486,8 +18508,9 @@
       <c r="B24" s="7">
         <v>0.02</v>
       </c>
-      <c r="C24" s="7">
-        <v>23</v>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>132</v>
       </c>
       <c r="D24" s="7">
         <v>5000000</v>
@@ -18515,8 +18538,9 @@
       <c r="B25" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C25" s="7">
-        <v>24</v>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>133</v>
       </c>
       <c r="D25" s="7">
         <v>6000000</v>
@@ -18544,8 +18568,9 @@
       <c r="B26" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C26" s="7">
-        <v>25</v>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>134</v>
       </c>
       <c r="D26" s="7">
         <v>10000000</v>
@@ -18573,8 +18598,9 @@
       <c r="B27" s="7">
         <v>0.02</v>
       </c>
-      <c r="C27" s="7">
-        <v>26</v>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="D27" s="7">
         <v>500000</v>
@@ -18602,8 +18628,9 @@
       <c r="B28" s="7">
         <v>0.02</v>
       </c>
-      <c r="C28" s="7">
-        <v>27</v>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>136</v>
       </c>
       <c r="D28" s="7">
         <v>50000</v>
@@ -18631,8 +18658,9 @@
       <c r="B29" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C29" s="7">
-        <v>28</v>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>137</v>
       </c>
       <c r="D29" s="7">
         <v>600</v>
@@ -18660,8 +18688,9 @@
       <c r="B30" s="7">
         <v>0.02</v>
       </c>
-      <c r="C30" s="7">
-        <v>29</v>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>138</v>
       </c>
       <c r="D30" s="7">
         <v>3000</v>
@@ -18689,8 +18718,9 @@
       <c r="B31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="7">
-        <v>30</v>
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>139</v>
       </c>
       <c r="D31" s="7">
         <v>0</v>
@@ -18718,8 +18748,9 @@
       <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="7">
-        <v>31</v>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
       <c r="D32" s="7">
         <v>1200000</v>
@@ -18747,8 +18778,9 @@
       <c r="B33" s="7">
         <v>0.02</v>
       </c>
-      <c r="C33" s="7">
-        <v>32</v>
+      <c r="C33" s="6">
+        <f t="shared" si="0"/>
+        <v>141</v>
       </c>
       <c r="D33" s="7">
         <v>170000</v>
@@ -18776,8 +18808,9 @@
       <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="7">
-        <v>33</v>
+      <c r="C34" s="6">
+        <f t="shared" si="0"/>
+        <v>142</v>
       </c>
       <c r="D34" s="7">
         <v>0</v>
@@ -18805,8 +18838,9 @@
       <c r="B35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="7">
-        <v>34</v>
+      <c r="C35" s="6">
+        <f t="shared" si="0"/>
+        <v>143</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
@@ -18834,8 +18868,9 @@
       <c r="B36" s="7">
         <v>0.02</v>
       </c>
-      <c r="C36" s="7">
-        <v>35</v>
+      <c r="C36" s="6">
+        <f t="shared" si="0"/>
+        <v>144</v>
       </c>
       <c r="D36" s="7">
         <v>15000</v>
@@ -18863,8 +18898,9 @@
       <c r="B37" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C37" s="7">
-        <v>36</v>
+      <c r="C37" s="6">
+        <f t="shared" si="0"/>
+        <v>145</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
@@ -18892,8 +18928,9 @@
       <c r="B38" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C38" s="7">
-        <v>37</v>
+      <c r="C38" s="6">
+        <f t="shared" si="0"/>
+        <v>146</v>
       </c>
       <c r="D38" s="7">
         <v>60000</v>
@@ -18921,8 +18958,9 @@
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="7">
-        <v>38</v>
+      <c r="C39" s="6">
+        <f t="shared" si="0"/>
+        <v>147</v>
       </c>
       <c r="D39" s="7">
         <v>1000000</v>
@@ -18950,8 +18988,9 @@
       <c r="B40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="7">
-        <v>39</v>
+      <c r="C40" s="6">
+        <f t="shared" si="0"/>
+        <v>148</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -18979,8 +19018,9 @@
       <c r="B41" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C41" s="7">
-        <v>40</v>
+      <c r="C41" s="6">
+        <f t="shared" si="0"/>
+        <v>149</v>
       </c>
       <c r="D41" s="7">
         <v>9000</v>
@@ -19008,8 +19048,9 @@
       <c r="B42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="7">
-        <v>41</v>
+      <c r="C42" s="6">
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="D42" s="7">
         <v>300</v>
@@ -19037,8 +19078,9 @@
       <c r="B43" s="7">
         <v>0.02</v>
       </c>
-      <c r="C43" s="7">
-        <v>42</v>
+      <c r="C43" s="6">
+        <f t="shared" si="0"/>
+        <v>151</v>
       </c>
       <c r="D43" s="7">
         <v>2600000</v>
@@ -19066,8 +19108,9 @@
       <c r="B44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="7">
-        <v>43</v>
+      <c r="C44" s="6">
+        <f t="shared" si="0"/>
+        <v>152</v>
       </c>
       <c r="D44" s="7">
         <v>80000000</v>
@@ -19095,8 +19138,9 @@
       <c r="B45" s="7">
         <v>0.02</v>
       </c>
-      <c r="C45" s="7">
-        <v>44</v>
+      <c r="C45" s="6">
+        <f t="shared" si="0"/>
+        <v>153</v>
       </c>
       <c r="D45" s="7">
         <v>0</v>
@@ -19124,8 +19168,9 @@
       <c r="B46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="7">
-        <v>45</v>
+      <c r="C46" s="6">
+        <f t="shared" si="0"/>
+        <v>154</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
@@ -19153,8 +19198,9 @@
       <c r="B47" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C47" s="7">
-        <v>46</v>
+      <c r="C47" s="6">
+        <f t="shared" si="0"/>
+        <v>155</v>
       </c>
       <c r="D47" s="7">
         <v>0</v>
@@ -19182,8 +19228,9 @@
       <c r="B48" s="7">
         <v>0.02</v>
       </c>
-      <c r="C48" s="7">
-        <v>47</v>
+      <c r="C48" s="6">
+        <f t="shared" si="0"/>
+        <v>156</v>
       </c>
       <c r="D48" s="7">
         <v>10000000</v>
@@ -19211,8 +19258,9 @@
       <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="7">
-        <v>48</v>
+      <c r="C49" s="6">
+        <f t="shared" si="0"/>
+        <v>157</v>
       </c>
       <c r="D49" s="7">
         <v>5000000</v>
@@ -19240,8 +19288,9 @@
       <c r="B50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="7">
-        <v>49</v>
+      <c r="C50" s="6">
+        <f t="shared" si="0"/>
+        <v>158</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
@@ -19269,8 +19318,9 @@
       <c r="B51" s="7">
         <v>0.02</v>
       </c>
-      <c r="C51" s="7">
-        <v>50</v>
+      <c r="C51" s="6">
+        <f t="shared" si="0"/>
+        <v>159</v>
       </c>
       <c r="D51" s="7">
         <v>4000000</v>
@@ -19298,8 +19348,9 @@
       <c r="B52" s="7">
         <v>0.02</v>
       </c>
-      <c r="C52" s="7">
-        <v>51</v>
+      <c r="C52" s="6">
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="D52" s="7">
         <v>500000</v>
@@ -19327,8 +19378,9 @@
       <c r="B53" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="7">
-        <v>52</v>
+      <c r="C53" s="6">
+        <f t="shared" si="0"/>
+        <v>161</v>
       </c>
       <c r="D53" s="7">
         <v>90000</v>
@@ -19356,8 +19408,9 @@
       <c r="B54" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C54" s="7">
-        <v>53</v>
+      <c r="C54" s="6">
+        <f t="shared" si="0"/>
+        <v>162</v>
       </c>
       <c r="D54" s="7">
         <v>100</v>
@@ -19385,8 +19438,9 @@
       <c r="B55" s="7">
         <v>0.02</v>
       </c>
-      <c r="C55" s="7">
-        <v>54</v>
+      <c r="C55" s="6">
+        <f t="shared" si="0"/>
+        <v>163</v>
       </c>
       <c r="D55" s="7">
         <v>800000</v>
@@ -19414,8 +19468,9 @@
       <c r="B56" s="7">
         <v>2E-3</v>
       </c>
-      <c r="C56" s="7">
-        <v>55</v>
+      <c r="C56" s="6">
+        <f t="shared" si="0"/>
+        <v>164</v>
       </c>
       <c r="D56" s="7">
         <v>0</v>
@@ -19443,8 +19498,9 @@
       <c r="B57" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="7">
-        <v>56</v>
+      <c r="C57" s="6">
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
       <c r="D57" s="7">
         <v>0</v>
@@ -19472,8 +19528,9 @@
       <c r="B58" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="7">
-        <v>57</v>
+      <c r="C58" s="6">
+        <f t="shared" si="0"/>
+        <v>166</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -19501,8 +19558,9 @@
       <c r="B59" s="7">
         <v>0.02</v>
       </c>
-      <c r="C59" s="7">
-        <v>58</v>
+      <c r="C59" s="6">
+        <f t="shared" si="0"/>
+        <v>167</v>
       </c>
       <c r="D59" s="7">
         <v>2000</v>
@@ -19530,8 +19588,9 @@
       <c r="B60" s="7">
         <v>0.02</v>
       </c>
-      <c r="C60" s="7">
-        <v>59</v>
+      <c r="C60" s="6">
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="D60" s="7">
         <v>140000</v>
@@ -19559,8 +19618,9 @@
       <c r="B61" s="7">
         <v>0.02</v>
       </c>
-      <c r="C61" s="7">
-        <v>60</v>
+      <c r="C61" s="6">
+        <f t="shared" si="0"/>
+        <v>169</v>
       </c>
       <c r="D61" s="7">
         <v>20000</v>
@@ -19583,6 +19643,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -19591,7 +19652,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+      <selection activeCell="D2" sqref="D2:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21801,6 +21862,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -21808,8 +21870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753D2CCF-FD38-3E49-A7BE-BD5C96B56155}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21842,8 +21904,8 @@
       <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
+      <c r="C2" s="1">
+        <v>170</v>
       </c>
       <c r="D2" s="7">
         <v>600000</v>
@@ -21859,8 +21921,8 @@
       <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="7">
-        <v>2</v>
+      <c r="C3" s="1">
+        <v>171</v>
       </c>
       <c r="D3" s="7">
         <v>1000000</v>
@@ -21876,8 +21938,8 @@
       <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="7">
-        <v>4</v>
+      <c r="C4" s="1">
+        <v>173</v>
       </c>
       <c r="D4" s="7">
         <v>1600000</v>
@@ -21893,8 +21955,8 @@
       <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="7">
-        <v>8</v>
+      <c r="C5" s="1">
+        <v>177</v>
       </c>
       <c r="D5" s="7">
         <v>4000000</v>
@@ -21910,8 +21972,8 @@
       <c r="B6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="7">
-        <v>9</v>
+      <c r="C6" s="1">
+        <v>178</v>
       </c>
       <c r="D6" s="7">
         <v>120000</v>
@@ -21927,8 +21989,8 @@
       <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="7">
-        <v>12</v>
+      <c r="C7" s="1">
+        <v>181</v>
       </c>
       <c r="D7" s="7">
         <v>20000000</v>
@@ -21944,8 +22006,8 @@
       <c r="B8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="7">
-        <v>14</v>
+      <c r="C8" s="1">
+        <v>183</v>
       </c>
       <c r="D8" s="7">
         <v>20000</v>
@@ -21961,8 +22023,8 @@
       <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="7">
-        <v>17</v>
+      <c r="C9" s="1">
+        <v>186</v>
       </c>
       <c r="D9" s="7">
         <v>310000</v>
@@ -21978,8 +22040,8 @@
       <c r="B10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="7">
-        <v>18</v>
+      <c r="C10" s="1">
+        <v>187</v>
       </c>
       <c r="D10" s="7">
         <v>50000</v>
@@ -21995,8 +22057,8 @@
       <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="7">
-        <v>20</v>
+      <c r="C11" s="1">
+        <v>189</v>
       </c>
       <c r="D11" s="7">
         <v>200000</v>
@@ -22012,8 +22074,8 @@
       <c r="B12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="7">
-        <v>21</v>
+      <c r="C12" s="1">
+        <v>190</v>
       </c>
       <c r="D12" s="7">
         <v>120000</v>
@@ -22029,8 +22091,8 @@
       <c r="B13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="7">
-        <v>23</v>
+      <c r="C13" s="1">
+        <v>192</v>
       </c>
       <c r="D13" s="7">
         <v>290000</v>
@@ -22046,8 +22108,8 @@
       <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="7">
-        <v>26</v>
+      <c r="C14" s="1">
+        <v>195</v>
       </c>
       <c r="D14" s="7">
         <v>320000</v>
@@ -22063,8 +22125,8 @@
       <c r="B15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="7">
-        <v>29</v>
+      <c r="C15" s="1">
+        <v>198</v>
       </c>
       <c r="D15" s="7">
         <v>10000000</v>
@@ -22080,8 +22142,8 @@
       <c r="B16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="7">
-        <v>30</v>
+      <c r="C16" s="1">
+        <v>199</v>
       </c>
       <c r="D16" s="7">
         <v>300000</v>
@@ -22097,8 +22159,8 @@
       <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="7">
-        <v>35</v>
+      <c r="C17" s="1">
+        <v>204</v>
       </c>
       <c r="D17" s="7">
         <v>300000</v>
@@ -22114,8 +22176,8 @@
       <c r="B18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="7">
-        <v>38</v>
+      <c r="C18" s="1">
+        <v>207</v>
       </c>
       <c r="D18" s="7">
         <v>1600000</v>
@@ -22131,8 +22193,8 @@
       <c r="B19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="7">
-        <v>40</v>
+      <c r="C19" s="1">
+        <v>209</v>
       </c>
       <c r="D19" s="7">
         <v>200000</v>
@@ -22148,8 +22210,8 @@
       <c r="B20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="7">
-        <v>43</v>
+      <c r="C20" s="1">
+        <v>212</v>
       </c>
       <c r="D20" s="7">
         <v>400000</v>
@@ -22165,8 +22227,8 @@
       <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="7">
-        <v>45</v>
+      <c r="C21" s="1">
+        <v>214</v>
       </c>
       <c r="D21" s="7">
         <v>2000000</v>
@@ -22182,8 +22244,8 @@
       <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="7">
-        <v>47</v>
+      <c r="C22" s="1">
+        <v>216</v>
       </c>
       <c r="D22" s="7">
         <v>600</v>
@@ -22199,8 +22261,8 @@
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7">
-        <v>10</v>
+      <c r="C23" s="1">
+        <v>179</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
@@ -22216,8 +22278,8 @@
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="7">
-        <v>13</v>
+      <c r="C24" s="1">
+        <v>182</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
@@ -22233,8 +22295,8 @@
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7">
-        <v>19</v>
+      <c r="C25" s="1">
+        <v>188</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
@@ -22250,8 +22312,8 @@
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="7">
-        <v>28</v>
+      <c r="C26" s="1">
+        <v>197</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
@@ -22267,8 +22329,8 @@
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7">
-        <v>31</v>
+      <c r="C27" s="1">
+        <v>200</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
@@ -22284,8 +22346,8 @@
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="7">
-        <v>46</v>
+      <c r="C28" s="1">
+        <v>215</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
